--- a/11-Parameters/LIONBeamLine-Params-Gauss.xlsx
+++ b/11-Parameters/LIONBeamLine-Params-Gauss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDAEEF4-7C29-D947-9C49-AFEFF3168D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A718AD-59D4-A24E-ACE3-13E64D7E4220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="27880" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,6 +222,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -375,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -393,6 +396,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,9 +415,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -451,7 +455,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -557,7 +561,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -699,7 +703,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -710,7 +714,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,7 +724,7 @@
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49" bestFit="1" customWidth="1"/>
   </cols>
@@ -790,7 +794,7 @@
         <v>51</v>
       </c>
       <c r="F3" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>9</v>
@@ -861,7 +865,7 @@
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="13">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -887,7 +891,7 @@
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="13">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -914,7 +918,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>9</v>
@@ -988,7 +992,7 @@
         <v>16</v>
       </c>
       <c r="F11">
-        <v>4.0340000000000001E-2</v>
+        <v>4.1180000000000001E-2</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>12</v>
@@ -1162,7 +1166,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="3">
-        <v>2.5770000000000001E-2</v>
+        <v>3.6953E-2</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>12</v>
@@ -1260,7 +1264,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="3">
-        <v>1.7286520000000001</v>
+        <v>1.6</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>12</v>

--- a/11-Parameters/LIONBeamLine-Params-Gauss.xlsx
+++ b/11-Parameters/LIONBeamLine-Params-Gauss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A718AD-59D4-A24E-ACE3-13E64D7E4220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B10866-AF49-DA4C-8DB2-E7E2BD3F3A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="27880" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
   <si>
     <t>Parameter</t>
   </si>
@@ -711,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A20" sqref="A20:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1085,20 +1085,22 @@
         <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E15" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F15" s="3">
-        <v>0.04</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1113,16 +1115,16 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F16" s="3">
-        <v>332</v>
+        <v>0.04</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1133,22 +1135,20 @@
         <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>332</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1159,20 +1159,22 @@
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E18" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F18" s="3">
-        <v>3.6953E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1183,20 +1185,20 @@
         <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="3">
-        <v>0.02</v>
+        <v>3.6953E-2</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1207,46 +1209,46 @@
         <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="3">
-        <v>318.5</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>37</v>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1254,47 +1256,49 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F22" s="3">
-        <v>1.6</v>
+        <v>318.5</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>40</v>
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1305,45 +1309,93 @@
         <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F26" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>1</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F27" s="4">
         <v>0.02</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="4" t="s">
+      <c r="G27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>43</v>
       </c>
     </row>

--- a/11-Parameters/LIONBeamLine-Params-Gauss.xlsx
+++ b/11-Parameters/LIONBeamLine-Params-Gauss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B10866-AF49-DA4C-8DB2-E7E2BD3F3A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8828650A-7173-8E45-9551-DAF1926EE023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="27880" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
   <si>
     <t>Parameter</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Parameterised TNSA</t>
-  </si>
-  <si>
     <t>Facility</t>
   </si>
   <si>
@@ -216,6 +213,12 @@
   </si>
   <si>
     <t>Minimum theta for flat cos theta</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Gaussian</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:H20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,19 +763,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -782,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="F3" s="11">
         <v>10</v>
@@ -806,16 +809,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="D4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="F4" s="8">
         <v>0.5</v>
@@ -836,7 +839,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -846,7 +849,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -860,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -886,7 +889,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -912,10 +915,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
@@ -924,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -938,10 +941,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2">
         <v>0.3</v>
@@ -950,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -964,7 +967,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>18</v>
@@ -974,7 +977,7 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1202,8 +1205,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>1</v>
+      <c r="A20" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>23</v>
